--- a/I & DT/6- task.xlsx
+++ b/I & DT/6- task.xlsx
@@ -1,30 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rustammakhmadaliev/Desktop/Digital/Prezintatsiyalar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\GitHub\PDP-University\I &amp; DT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE47C027-3B6A-7E40-9FAA-8E24C13EB606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613EAC79-9EEB-4128-9F18-B043CE3142DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1470" yWindow="1470" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trend" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Trend!$A$2:$A$16</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Trend!$B$2:$B$16</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Trend!$A$2:$A$16</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Trend!$B$2:$B$16</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Trend!$A$2:$A$16</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Trend!$B$2:$B$16</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Trend!$A$2:$A$16</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Trend!$B$2:$B$16</definedName>
-  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -179,7 +169,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -193,11 +183,21 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -207,6 +207,33 @@
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -221,15 +248,81 @@
             <c:v>Sotuvlar</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln>
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="0000FF"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Trend!$A$2:$A$16</c:f>
@@ -345,13 +438,15 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="50010001"/>
         <c:axId val="50010002"/>
@@ -366,11 +461,21 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -380,11 +485,71 @@
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="50010002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -397,17 +562,52 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -417,30 +617,745 @@
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010001"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -773,18 +1688,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -793,7 +1708,7 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -802,7 +1717,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -811,7 +1726,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -820,7 +1735,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -829,7 +1744,7 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -838,7 +1753,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -847,7 +1762,7 @@
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -856,7 +1771,7 @@
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -865,7 +1780,7 @@
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -874,7 +1789,7 @@
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -883,7 +1798,7 @@
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -892,7 +1807,7 @@
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -901,7 +1816,7 @@
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -910,7 +1825,7 @@
       </c>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -919,7 +1834,7 @@
       </c>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
